--- a/Alexis/WIRecipe.xlsx
+++ b/Alexis/WIRecipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saira\Desktop\DAEN690\Alexis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saira\Desktop\DAEN690\Alexis\Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E8B913-6B2D-42CF-85BE-DB866C6F1D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945AD33-4412-4FF0-84CC-D1190AFDCF44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="382">
   <si>
     <t>Operation</t>
   </si>
@@ -629,9 +629,6 @@
     <t>Enrollment-Total</t>
   </si>
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -722,175 +719,547 @@
     <t>REMOVECOLUMN</t>
   </si>
   <si>
+    <t>Operating Days-Breakfast Only</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Operating Days-Lunch Only</t>
+  </si>
+  <si>
+    <t>Lunch Meals-Free</t>
+  </si>
+  <si>
+    <t>Lunch Meals-Reduced</t>
+  </si>
+  <si>
+    <t>Lunch Meals-Paid</t>
+  </si>
+  <si>
+    <t>School Level-Original</t>
+  </si>
+  <si>
+    <t>Street Address-Line 1</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>Breakfast Meals-Free</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Breakfast Meals-Reduced</t>
+  </si>
+  <si>
+    <t>Breakfast Meals-Paid</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Calculation_Logic4</t>
+  </si>
+  <si>
+    <t>SchoolTypeOriginalFormula</t>
+  </si>
+  <si>
+    <t>FREnrollmentPercentageFormula</t>
+  </si>
+  <si>
+    <t>Calculation_Logic5</t>
+  </si>
+  <si>
+    <t>Calculation_Logic6</t>
+  </si>
+  <si>
+    <t>frEnrollmentFormula</t>
+  </si>
+  <si>
+    <t>Date_Claim_Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change to Date format "MM/DD/YYYY" for  RF1 </t>
+  </si>
+  <si>
+    <t>DATEMMDDYYY</t>
+  </si>
+  <si>
+    <t>DATEMMDDYYYY</t>
+  </si>
+  <si>
+    <t>SY18-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School Year </t>
+  </si>
+  <si>
+    <t>CLAIMYEAR</t>
+  </si>
+  <si>
+    <t>CLAIMMONTH</t>
+  </si>
+  <si>
+    <t>Calculation_Logic7</t>
+  </si>
+  <si>
+    <t>CONCATMODELS</t>
+  </si>
+  <si>
+    <t>BreakfastOpDaysFormula</t>
+  </si>
+  <si>
+    <t>LunchOpDaysFormula</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>FullOuterJoin</t>
+  </si>
+  <si>
+    <t>DPI_SEP</t>
+  </si>
+  <si>
+    <t>RemoveCOLUMN</t>
+  </si>
+  <si>
+    <t>LeftOuterJoin</t>
+  </si>
+  <si>
+    <t>Raw_File_Name_1</t>
+  </si>
+  <si>
+    <t>Raw_File_Name_2</t>
+  </si>
+  <si>
+    <t>GenerateKey</t>
+  </si>
+  <si>
+    <t>key1</t>
+  </si>
+  <si>
+    <t>GenerateSchoolKey</t>
+  </si>
+  <si>
+    <t>C:\Users\Saira\Desktop\DAEN690\ShareOurStrength-master\Data\Wisconsin_WI\Raw_Data\WI NCES School Data, SY15-16.xlsx</t>
+  </si>
+  <si>
+    <t>FREnrollmentFormula</t>
+  </si>
+  <si>
+    <t>FRBreakfastADPFormula</t>
+  </si>
+  <si>
+    <t>FRBreakfastMealsFormula</t>
+  </si>
+  <si>
+    <t>FRLunchADPFormula</t>
+  </si>
+  <si>
+    <t>FRLunchMealsFormula</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>Sheet 1</t>
+  </si>
+  <si>
+    <t>Calculation_Logic8</t>
+  </si>
+  <si>
+    <t>Calculation_Logic9</t>
+  </si>
+  <si>
+    <t>Calculation_Logic10</t>
+  </si>
+  <si>
+    <t>Calculation_Logic11</t>
+  </si>
+  <si>
+    <t>Calculation_Logic12</t>
+  </si>
+  <si>
+    <t>Calculation_Logic13</t>
+  </si>
+  <si>
+    <t>Calculation_Logic14</t>
+  </si>
+  <si>
+    <t>Calculation_Logic15</t>
+  </si>
+  <si>
+    <t>Breakfast Delivery Model from Other Source-Original</t>
+  </si>
+  <si>
+    <t>State School ID [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>SCHOOLLevelSTD</t>
+  </si>
+  <si>
+    <t>SCHOOLTypeSTD</t>
+  </si>
+  <si>
+    <t>School Name_y</t>
+  </si>
+  <si>
+    <t>State Name [Public School] Latest available year</t>
+  </si>
+  <si>
+    <t>State Name [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>State Abbr [Public School] Latest available year</t>
+  </si>
+  <si>
+    <t>School Name [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>School ID - NCES Assigned [Public School] Latest available year</t>
+  </si>
+  <si>
     <t>NCES ID</t>
   </si>
   <si>
-    <t>Operating Days-Breakfast Only</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Operating Days-Lunch Only</t>
-  </si>
-  <si>
-    <t>Lunch Meals-Free</t>
-  </si>
-  <si>
-    <t>Lunch Meals-Reduced</t>
-  </si>
-  <si>
-    <t>Lunch Meals-Paid</t>
-  </si>
-  <si>
-    <t>School Level-Original</t>
-  </si>
-  <si>
-    <t>Street Address-Line 1</t>
-  </si>
-  <si>
-    <t>Zip Code</t>
-  </si>
-  <si>
-    <t>ISP</t>
-  </si>
-  <si>
-    <t>Breakfast Meals-Free</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Breakfast Meals-Reduced</t>
-  </si>
-  <si>
-    <t>Breakfast Meals-Paid</t>
-  </si>
-  <si>
-    <t>School ID - NCES Assigned [Public School] Latest available year</t>
-  </si>
-  <si>
-    <t>DefaultValue</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>Calculation_Logic4</t>
-  </si>
-  <si>
-    <t>SchoolTypeOriginalFormula</t>
-  </si>
-  <si>
-    <t>FREnrollmentPercentageFormula</t>
-  </si>
-  <si>
-    <t>Calculation_Logic5</t>
-  </si>
-  <si>
-    <t>Calculation_Logic6</t>
-  </si>
-  <si>
-    <t>frEnrollmentFormula</t>
-  </si>
-  <si>
-    <t>Date_Claim_Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change to Date format "MM/DD/YYYY" for  RF1 </t>
-  </si>
-  <si>
-    <t>DATEMMDDYYY</t>
-  </si>
-  <si>
-    <t>DATEMMDDYYYY</t>
-  </si>
-  <si>
-    <t>SY18-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School Year </t>
-  </si>
-  <si>
-    <t>CLAIMYEAR</t>
-  </si>
-  <si>
-    <t>CLAIMMONTH</t>
-  </si>
-  <si>
-    <t>Calculation_Logic7</t>
-  </si>
-  <si>
-    <t>CONCATMODELS</t>
-  </si>
-  <si>
-    <t>BreakfastOpDaysFormula</t>
-  </si>
-  <si>
-    <t>LunchOpDaysFormula</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>FullOuterJoin</t>
-  </si>
-  <si>
-    <t>DPI_SEP</t>
-  </si>
-  <si>
-    <t>RemoveCOLUMN</t>
-  </si>
-  <si>
-    <t>LeftOuterJoin</t>
-  </si>
-  <si>
-    <t>DPI_SEP_NCES</t>
-  </si>
-  <si>
-    <t>Raw_File_Name_1</t>
-  </si>
-  <si>
-    <t>Raw_File_Name_2</t>
-  </si>
-  <si>
-    <t>GenerateKey</t>
-  </si>
-  <si>
-    <t>key1</t>
-  </si>
-  <si>
-    <t>GenerateSchoolKey</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>C:\Users\Saira\Desktop\DAEN690\ShareOurStrength-master\Data\Wisconsin_WI\Raw_Data\WI NCES School Data, SY15-16.xlsx</t>
-  </si>
-  <si>
-    <t>FREnrollmentFormula</t>
-  </si>
-  <si>
-    <t>FRBreakfastADPFormula</t>
-  </si>
-  <si>
-    <t>FRBreakfastMealsFormula</t>
-  </si>
-  <si>
-    <t>FRLunchADPFormula</t>
-  </si>
-  <si>
-    <t>FRLunchMealsFormula</t>
-  </si>
-  <si>
-    <t>Worksheet</t>
-  </si>
-  <si>
-    <t>Sheet1</t>
-  </si>
-  <si>
-    <t>Sheet 1</t>
+    <t>Agency Name [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Agency ID - NCES Assigned [Public School] Latest available year</t>
+  </si>
+  <si>
+    <t>County Name [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>County Number [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>ANSI/FIPS State Code [Public School] Latest available year</t>
+  </si>
+  <si>
+    <t>Web Site URL [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Years School Reported Data [Public School] Latest available year</t>
+  </si>
+  <si>
+    <t>Years School Did Not Report Data [Public School] Latest available year</t>
+  </si>
+  <si>
+    <t>Location Address 1 [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Location Address 2 [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Location Address 3 [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Location City [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Location State Abbr [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Location ZIP [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Location ZIP4 [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Mailing Address 1 [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Mailing Address 2 [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Mailing Address 3 [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Mailing City [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Mailing State Abbr [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Mailing ZIP [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Mailing ZIP4 [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Phone Number [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Out of State Flag [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>School Type [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Agency Type [District] 2015-16</t>
+  </si>
+  <si>
+    <t>Start of Year Status [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Updated Status [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Effective Date of Updated Status [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Charter School [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Magnet School [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Shared Time School [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Urban-centric Locale [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>School-wide Title I [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Title I Eligible School [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Title I School Status [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>CBSA Name [District] 2015-16</t>
+  </si>
+  <si>
+    <t>CBSA ID [District] 2015-16</t>
+  </si>
+  <si>
+    <t>CSA Name [District] 2015-16</t>
+  </si>
+  <si>
+    <t>CSA ID [District] 2015-16</t>
+  </si>
+  <si>
+    <t>Latitude [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Longitude [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>State Agency ID [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Congressional Code [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Reconstituted flag [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Virtual School Status [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>National School Lunch Program [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Charter Authorizer Name Primary [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Charter Authorizer Name Secondary [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Supervisory Union (ID) Number [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>School Level Code [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Lowest Grade Offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Highest Grade Offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Prekindergarten offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Kindergarten offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 1 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 2 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 3 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 4 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 5 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 6 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 7 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 8 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 9 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 10 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 11 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 12 offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 13 Offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Ungraded offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Adult Education Offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>No Grades Offered [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Total Students, All Grades (Excludes AE) [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Total Students, All Grades (Includes AE) [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Free Lunch Eligible [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Reduced-price Lunch Eligible Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Free and Reduced Lunch Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grades 1-8 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grades 9-12 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Prekindergarten Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Kindergarten Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 1 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 2 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 3 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 4 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 5 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 6 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 7 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 8 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 9 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 10 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 11 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 12 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Grade 13 Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Ungraded Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Adult Education Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Male Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Female Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>American Indian/Alaska Native Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Asian or Asian/Pacific Islander Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Hispanic Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Black Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>White Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Hawaiian Nat./Pacific Isl. Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Two or More Races Students [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Total Race/Ethnicity [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Full-Time Equivalent (FTE) Teachers [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>Pupil/Teacher Ratio [Public School] 2015-16</t>
+  </si>
+  <si>
+    <t>ncesid</t>
+  </si>
+  <si>
+    <t>BreakDelModelSTD</t>
   </si>
 </sst>
 </file>
@@ -941,14 +1310,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1135,9 +1504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1153,27 +1519,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1458,1680 +1825,2388 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72:K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="42.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="84" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="84" style="17" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="37">
+      <c r="B3" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="40" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="37">
-        <v>1</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="37">
-        <v>1</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="21">
-        <v>1</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="30" t="s">
+      <c r="D8" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>54</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="E11" s="17">
+        <v>4</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="F12" s="17">
+        <v>237</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>186</v>
+        <v>237</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="17">
+        <v>6</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="18">
-        <v>1</v>
-      </c>
-      <c r="E14" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="18">
-        <v>1</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="E46" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="17">
-        <v>6</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="18">
-        <v>1</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" s="18" t="s">
+      <c r="E47" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="F50" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" s="18">
-        <v>1</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="18">
-        <v>1</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="18">
-        <v>1</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22" s="18">
-        <v>1</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" s="18">
-        <v>1</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="18">
-        <v>1</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="18">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="18">
-        <v>1</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="18">
-        <v>1</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28" s="18">
-        <v>1</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="18">
-        <v>1</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D30" s="18">
-        <v>1</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="18">
-        <v>1</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="18">
-        <v>1</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="18">
-        <v>1</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" s="18">
-        <v>1</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="18">
-        <v>1</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" s="18">
-        <v>1</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" s="18">
-        <v>1</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="18">
-        <v>1</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D39" s="18">
-        <v>1</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D40" s="18">
-        <v>1</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D41" s="18">
-        <v>1</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D42" s="18">
-        <v>1</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" s="18">
-        <v>1</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D44" s="18">
-        <v>1</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="18">
-        <v>1</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="18">
-        <v>1</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="G46" t="s">
-        <v>95</v>
-      </c>
-      <c r="H46" t="s">
-        <v>96</v>
-      </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="18">
-        <v>1</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="18">
-        <v>1</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D49" s="18">
-        <v>1</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50" s="18">
-        <v>1</v>
-      </c>
-      <c r="E50" s="18" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="E51" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D51" s="18">
-        <v>1</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D52" s="18">
-        <v>1</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F52" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D53" s="18">
-        <v>1</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D54" s="18">
-        <v>1</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D55" s="18">
-        <v>1</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D56" s="18">
-        <v>1</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D57" s="18">
-        <v>1</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F57" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D58" s="18">
-        <v>1</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F58" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D59" s="18">
-        <v>1</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D60" s="18">
-        <v>1</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F60" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D61" s="18">
-        <v>1</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>194</v>
+        <v>237</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="18">
-        <v>1</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F62" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D63" s="18">
-        <v>1</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>194</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="18">
-        <v>1</v>
-      </c>
-      <c r="E64" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="E64" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G64" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F64" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D65" s="18">
-        <v>1</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>194</v>
+        <v>237</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="F65" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66" s="18">
-        <v>1</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E66" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D67" s="18">
-        <v>1</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>216</v>
+        <v>237</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68" s="18">
-        <v>1</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>214</v>
+        <v>237</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="20"/>
-      <c r="D69" s="18">
-        <v>1</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F69" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="G69" s="20" t="s">
+      <c r="D69" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D75" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" t="s">
+        <v>197</v>
+      </c>
+      <c r="G75" t="s">
+        <v>196</v>
+      </c>
+      <c r="H75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D76" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="22"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D70" s="18">
-        <v>1</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D71" s="18">
-        <v>1</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F71" s="17" t="s">
+      <c r="E76" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" t="s">
+        <v>189</v>
+      </c>
+      <c r="G76" t="s">
+        <v>153</v>
+      </c>
+      <c r="H76" t="s">
+        <v>170</v>
+      </c>
+      <c r="I76" t="s">
+        <v>204</v>
+      </c>
+      <c r="J76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D77" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
+        <v>211</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D78" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D79" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D80" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D81" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D82" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D83" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D84" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D85" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D87" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D88" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D89" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D90" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D91" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D92" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D93" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D94" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D95" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D96" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D97" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D98" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D99" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D100" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D101" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D102" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D103" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D104" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D105" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D106" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F106" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="18">
-        <v>1</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F72" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D73" s="18">
-        <v>1</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D74" s="18">
-        <v>1</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="18">
-        <v>1</v>
-      </c>
-      <c r="E75" s="26" t="s">
+    </row>
+    <row r="107" spans="4:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D107" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="E107" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D108" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E108" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D109" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E109" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D110" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E110" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D111" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E111" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D112" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E112" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D113" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F113" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D114" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E114" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D115" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E115" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D116" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E116" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D117" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E117" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D118" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E118" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D119" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E119" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D120" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E120" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D121" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E121" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D122" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E122" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D123" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E123" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D124" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E124" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D125" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E125" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D126" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D127" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E127" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D128" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E128" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D129" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E129" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D130" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E130" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D131" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E131" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D132" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E132" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D133" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E133" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D134" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E134" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D135" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E135" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D136" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E136" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D137" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E137" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D138" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E138" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D139" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E139" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D140" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E140" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D141" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E141" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D142" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E142" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D143" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E143" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D144" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E144" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D145" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E145" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D146" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E146" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D147" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E147" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D148" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E148" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D149" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E149" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D150" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E150" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D151" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E151" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D152" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E152" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D153" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E153" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D154" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E154" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D155" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E155" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D156" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E156" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D157" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E157" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D158" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E158" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D159" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D160" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E160" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D161" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E161" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D162" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E162" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D163" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E163" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D164" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E164" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D165" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E165" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D166" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E166" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D167" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E167" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D168" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E168" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D169" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E169" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D170" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E170" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D171" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E171" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D172" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E172" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D173" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E173" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D174" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E174" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D175" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E175" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D176" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E176" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D177" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E177" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D178" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E178" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D179" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E179" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D180" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E180" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D181" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E181" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D182" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E182" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D183" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E183" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D184" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E184" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D185" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E185" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D186" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E186" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D187" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E187" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D188" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E188" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D189" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E189" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D190" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E190" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D191" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E191" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D192" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E192" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D193" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E193" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D194" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E194" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D195" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E195" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D196" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E196" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D197" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E197" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D198" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E198" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D199" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E199" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D200" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E200" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D201" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E201" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D202" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E202" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D203" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E203" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D204" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E204" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D205" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E205" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D206" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E206" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D207" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E207" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D208" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E208" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D209" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E209" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D210" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E210" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D211" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E211" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D212" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E212" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D213" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E213" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D214" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E214" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D215" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E215" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D216" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E216" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D217" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E217" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D218" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E218" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D219" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E219" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D220" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E220" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D221" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E221" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D222" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E222" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D223" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E223" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L75" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="18">
-        <v>1</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="18">
-        <v>1</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="G77" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E78" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G78" t="s">
-        <v>198</v>
-      </c>
-      <c r="H78" t="s">
-        <v>197</v>
-      </c>
-      <c r="I78" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E79" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G79" t="s">
-        <v>190</v>
-      </c>
-      <c r="H79" t="s">
-        <v>153</v>
-      </c>
-      <c r="I79" t="s">
-        <v>170</v>
-      </c>
-      <c r="J79" t="s">
-        <v>206</v>
-      </c>
-      <c r="K79" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E80" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G80" t="s">
-        <v>213</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E81" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E82" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G82" t="s">
-        <v>206</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E83" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="I83" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E84" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E85" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E86" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E87" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F87" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E88" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F88" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E89" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E90" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F90" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E91" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F91" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E92" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E93" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F93" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E94" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F94" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E95" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E96" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E97" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E98" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E99" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E100" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E101" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E102" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E103" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E104" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E105" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E106" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E107" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3289,57 +4364,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -4677,25 +5752,25 @@
         <v>97</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F2" s="26">
         <v>1</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -4708,10 +5783,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" t="e">
         <f ca="1">_xlfn.CONCAT(IF(B6="Y",B$5,""),IF(C6="Y",","&amp;C$5,""))</f>
@@ -4724,10 +5799,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
         <v>172</v>
-      </c>
-      <c r="C7" t="s">
-        <v>173</v>
       </c>
       <c r="D7" t="e">
         <f t="shared" ref="D7:D9" ca="1" si="0">_xlfn.CONCAT(IF(B7="Y",B$5,""),IF(C7="Y",","&amp;C$5,""))</f>
@@ -4740,10 +5815,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -4756,10 +5831,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -4775,23 +5850,23 @@
         <v>153</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>153</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -4802,14 +5877,14 @@
         <v>155</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>155</v>
@@ -4832,7 +5907,7 @@
     </row>
     <row r="15" spans="1:13" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>57</v>
@@ -4840,7 +5915,7 @@
     </row>
     <row r="16" spans="1:13" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>71</v>
@@ -4848,7 +5923,7 @@
     </row>
     <row r="17" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>56</v>
@@ -4856,7 +5931,7 @@
     </row>
     <row r="18" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>54</v>
@@ -4864,7 +5939,7 @@
     </row>
     <row r="19" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>53</v>
@@ -4872,7 +5947,7 @@
     </row>
     <row r="24" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>53</v>
@@ -4880,7 +5955,7 @@
     </row>
     <row r="25" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
@@ -4888,7 +5963,7 @@
     </row>
     <row r="26" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>51</v>
@@ -4896,7 +5971,7 @@
     </row>
     <row r="27" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>51</v>
@@ -4904,7 +5979,7 @@
     </row>
     <row r="28" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>52</v>
@@ -4912,13 +5987,13 @@
     </row>
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
@@ -4926,10 +6001,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>204</v>
+        <v>192</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
